--- a/Correlation data/Correlations_FacFish.xlsx
+++ b/Correlation data/Correlations_FacFish.xlsx
@@ -401,13 +401,13 @@
         </is>
       </c>
       <c r="C2">
-        <v>4.894130650315091</v>
+        <v>4.89413065031509</v>
       </c>
       <c r="D2">
         <v>11</v>
       </c>
       <c r="E2">
-        <v>1.676303688890221</v>
+        <v>1.67630368889022</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
